--- a/medicine/Enfance/Kate_Roberts_(auteure)/Kate_Roberts_(auteure).xlsx
+++ b/medicine/Enfance/Kate_Roberts_(auteure)/Kate_Roberts_(auteure).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kate Roberts, née le 13 février 1891 et morte le 4 avril 1985, est l'une des principales auteures de langue galloise du XXe siècle. Elle est surtout connue pour ses nouvelles, mais aussi pour ses romans. Kate Roberts est une éminente nationaliste galloise[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kate Roberts, née le 13 février 1891 et morte le 4 avril 1985, est l'une des principales auteures de langue galloise du XXe siècle. Elle est surtout connue pour ses nouvelles, mais aussi pour ses romans. Kate Roberts est une éminente nationaliste galloise.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Kate Roberts nait dans le village de Rhosgadfan, Caernarfonshire (aujourd'hui Gwynedd), où son père, Owen Roberts, est un carrier dans l'industrie locale ardoisière. Elle obtient son diplôme de langue galloise à l'université de Bangor, et suit une formation d'enseignante. Elle enseigne dans diverses écoles du sud du Pays de Galles.
 Elle rencontre Morris T. Williams aux réunions du Plaid Cymru (le parti nationaliste Gallois) et l'épouse en 1928. Williams est imprimeur, et finalement ils achètent l'imprimerie et la maison d'édition Gwasg Gee (The Gee Press), Denbigh, et s'installent dans la ville en 1935. 
@@ -522,7 +536,7 @@
 Traduction du texte anglais :proposition de traduction
 Portion de texte anglais à traduire en français
 Texte anglais à traduire :
-She remained in Denbigh after her retirement and died in 1985. Alan Llwyd's 2011 biography of Roberts used diaries and letters to shed fresh light on her private life and her relationship with Morris[2]. Cae'r Gors, the quarryman's cottage in which Roberts was born and brought up, has been taken into the care of Cadw and turned into a museum open to the public[3].
+She remained in Denbigh after her retirement and died in 1985. Alan Llwyd's 2011 biography of Roberts used diaries and letters to shed fresh light on her private life and her relationship with Morris. Cae'r Gors, the quarryman's cottage in which Roberts was born and brought up, has been taken into the care of Cadw and turned into a museum open to the public.
 Traduire ce texte • Outils • (+)
 Traduction du texte anglais :proposition de traduction</t>
         </is>
@@ -552,7 +566,9 @@
           <t>Travail</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est la mort de son frère pendant la Première Guerre mondiale qui la pousse à écrire. Elle utilise son travail littéraire comme un moyen d'accepter sa perte.
 Son premier volume de nouvelles, O gors y bryniau (From the Swamp of the Hills), paraît en 1925. Son livre de nouvelles le plus réussi est peut-être Te yn y grug (Tea in the Heather) (1959), une série pour les enfants. Parmi les romans que Roberts a écrits, le plus célèbre est peut-être Traed mewn cyffion (Feet in Chains) (1936), qui reflète la dure vie d'une famille d'ardoisiers. En 1960, elle publie Y lôn wen, un volume d'autobiographie.
@@ -588,7 +604,9 @@
           <t>Sélection d'œuvres en gallois et traductions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Traed Mewn Cyffion (Feet in Chains) (1936). Novel. Llandysul : Gwasg Gomer, 2001.  (ISBN 0-86383-480-9).
 Ffair Gaeaf a storïau eraill (Winter Fair and other stories) (1937). Short stories. Denbigh : Gwasg Gee, 2000.  (ISBN 0-00-017373-8).
